--- a/static/hojas_vida/CALIDAD_8CN23502LT.xlsx
+++ b/static/hojas_vida/CALIDAD_8CN23502LT.xlsx
@@ -2565,9 +2565,17 @@
       </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="62">
-      <c r="A35" s="18" t="n"/>
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
       <c r="B35" s="138" t="n"/>
-      <c r="C35" s="18" t="n"/>
+      <c r="C35" s="18" t="inlineStr">
+        <is>
+          <t>ultimo cambio de pantalla</t>
+        </is>
+      </c>
       <c r="D35" s="137" t="n"/>
       <c r="E35" s="137" t="n"/>
       <c r="F35" s="137" t="n"/>
@@ -2577,12 +2585,24 @@
       <c r="J35" s="137" t="n"/>
       <c r="K35" s="137" t="n"/>
       <c r="L35" s="138" t="n"/>
-      <c r="M35" s="18" t="n"/>
+      <c r="M35" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="166.5" customHeight="1" s="62">
-      <c r="A36" s="18" t="n"/>
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
       <c r="B36" s="138" t="n"/>
-      <c r="C36" s="18" t="n"/>
+      <c r="C36" s="18" t="inlineStr">
+        <is>
+          <t>opcion 3</t>
+        </is>
+      </c>
       <c r="D36" s="137" t="n"/>
       <c r="E36" s="137" t="n"/>
       <c r="F36" s="137" t="n"/>
@@ -2592,12 +2612,24 @@
       <c r="J36" s="137" t="n"/>
       <c r="K36" s="137" t="n"/>
       <c r="L36" s="138" t="n"/>
-      <c r="M36" s="18" t="n"/>
+      <c r="M36" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="168.75" customHeight="1" s="62">
-      <c r="A37" s="18" t="n"/>
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
       <c r="B37" s="138" t="n"/>
-      <c r="C37" s="18" t="n"/>
+      <c r="C37" s="18" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
       <c r="D37" s="137" t="n"/>
       <c r="E37" s="137" t="n"/>
       <c r="F37" s="137" t="n"/>
@@ -2607,7 +2639,11 @@
       <c r="J37" s="137" t="n"/>
       <c r="K37" s="137" t="n"/>
       <c r="L37" s="138" t="n"/>
-      <c r="M37" s="18" t="n"/>
+      <c r="M37" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="169.5" customHeight="1" s="62">
       <c r="A38" s="18" t="n"/>

--- a/static/hojas_vida/CALIDAD_8CN23502LT.xlsx
+++ b/static/hojas_vida/CALIDAD_8CN23502LT.xlsx
@@ -2565,9 +2565,17 @@
       </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="62">
-      <c r="A35" s="18" t="n"/>
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
       <c r="B35" s="138" t="n"/>
-      <c r="C35" s="18" t="n"/>
+      <c r="C35" s="18" t="inlineStr">
+        <is>
+          <t>ultimo cambio de pantalla</t>
+        </is>
+      </c>
       <c r="D35" s="137" t="n"/>
       <c r="E35" s="137" t="n"/>
       <c r="F35" s="137" t="n"/>
@@ -2577,12 +2585,24 @@
       <c r="J35" s="137" t="n"/>
       <c r="K35" s="137" t="n"/>
       <c r="L35" s="138" t="n"/>
-      <c r="M35" s="18" t="n"/>
+      <c r="M35" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="166.5" customHeight="1" s="62">
-      <c r="A36" s="18" t="n"/>
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
       <c r="B36" s="138" t="n"/>
-      <c r="C36" s="18" t="n"/>
+      <c r="C36" s="18" t="inlineStr">
+        <is>
+          <t>opcion 3</t>
+        </is>
+      </c>
       <c r="D36" s="137" t="n"/>
       <c r="E36" s="137" t="n"/>
       <c r="F36" s="137" t="n"/>
@@ -2592,12 +2612,24 @@
       <c r="J36" s="137" t="n"/>
       <c r="K36" s="137" t="n"/>
       <c r="L36" s="138" t="n"/>
-      <c r="M36" s="18" t="n"/>
+      <c r="M36" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="168.75" customHeight="1" s="62">
-      <c r="A37" s="18" t="n"/>
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
       <c r="B37" s="138" t="n"/>
-      <c r="C37" s="18" t="n"/>
+      <c r="C37" s="18" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
       <c r="D37" s="137" t="n"/>
       <c r="E37" s="137" t="n"/>
       <c r="F37" s="137" t="n"/>
@@ -2607,12 +2639,24 @@
       <c r="J37" s="137" t="n"/>
       <c r="K37" s="137" t="n"/>
       <c r="L37" s="138" t="n"/>
-      <c r="M37" s="18" t="n"/>
+      <c r="M37" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="169.5" customHeight="1" s="62">
-      <c r="A38" s="18" t="n"/>
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
       <c r="B38" s="138" t="n"/>
-      <c r="C38" s="18" t="n"/>
+      <c r="C38" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">prueva del clon </t>
+        </is>
+      </c>
       <c r="D38" s="137" t="n"/>
       <c r="E38" s="137" t="n"/>
       <c r="F38" s="137" t="n"/>
@@ -2622,12 +2666,24 @@
       <c r="J38" s="137" t="n"/>
       <c r="K38" s="137" t="n"/>
       <c r="L38" s="138" t="n"/>
-      <c r="M38" s="18" t="n"/>
+      <c r="M38" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="130.5" customHeight="1" s="62">
-      <c r="A39" s="18" t="n"/>
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
       <c r="B39" s="138" t="n"/>
-      <c r="C39" s="18" t="n"/>
+      <c r="C39" s="18" t="inlineStr">
+        <is>
+          <t>clon 1111111</t>
+        </is>
+      </c>
       <c r="D39" s="137" t="n"/>
       <c r="E39" s="137" t="n"/>
       <c r="F39" s="137" t="n"/>
@@ -2637,7 +2693,11 @@
       <c r="J39" s="137" t="n"/>
       <c r="K39" s="137" t="n"/>
       <c r="L39" s="138" t="n"/>
-      <c r="M39" s="18" t="n"/>
+      <c r="M39" s="18" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" s="62">
       <c r="A40" s="19" t="n"/>

--- a/static/hojas_vida/CALIDAD_8CN23502LT.xlsx
+++ b/static/hojas_vida/CALIDAD_8CN23502LT.xlsx
@@ -2700,9 +2700,17 @@
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" s="62">
-      <c r="A40" s="19" t="n"/>
+      <c r="A40" s="19" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="B40" s="19" t="n"/>
-      <c r="C40" s="19" t="n"/>
+      <c r="C40" s="19" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
       <c r="D40" s="19" t="n"/>
       <c r="E40" s="19" t="n"/>
       <c r="F40" s="19" t="n"/>
@@ -2712,12 +2720,24 @@
       <c r="J40" s="19" t="n"/>
       <c r="K40" s="19" t="n"/>
       <c r="L40" s="19" t="n"/>
-      <c r="M40" s="19" t="n"/>
+      <c r="M40" s="19" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1" s="62">
-      <c r="A41" s="19" t="n"/>
+      <c r="A41" s="19" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
       <c r="B41" s="19" t="n"/>
-      <c r="C41" s="19" t="n"/>
+      <c r="C41" s="19" t="inlineStr">
+        <is>
+          <t>cambio dr pantalla</t>
+        </is>
+      </c>
       <c r="D41" s="19" t="n"/>
       <c r="E41" s="19" t="n"/>
       <c r="F41" s="19" t="n"/>
@@ -2727,7 +2747,11 @@
       <c r="J41" s="19" t="n"/>
       <c r="K41" s="19" t="n"/>
       <c r="L41" s="19" t="n"/>
-      <c r="M41" s="19" t="n"/>
+      <c r="M41" s="19" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1" s="62">
       <c r="A42" s="19" t="n"/>
